--- a/wikipedia_validation_sheets/Hypervitaminosis A DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Hypervitaminosis A DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5525B160-4972-0F4C-9A1C-5BFA22AF9651}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA2D54-ED68-9949-80C9-9501FF330675}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="16700" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15340" windowHeight="5380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Elevated amounts of retinyl ester (i.e., &gt; 10% of total circulating vitamin A) in the fasting statehave been used as markers for chronic hypervitaminosis A in humans and monkeys.</t>
         </r>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="120">
   <si>
     <t>Hypervitaminosis A</t>
   </si>
@@ -340,12 +348,6 @@
     <t>Changes in consciousness</t>
   </si>
   <si>
-    <t>GASTRIC MUCOSAL CALCINOSIS</t>
-  </si>
-  <si>
-    <t>Spontaneous fracture</t>
-  </si>
-  <si>
     <t>Premature epiphyseal closure</t>
   </si>
   <si>
@@ -353,13 +355,73 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>consciousness</t>
+  </si>
+  <si>
+    <t>Consciousness, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>liver, damage</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>calcinosis</t>
+  </si>
+  <si>
+    <t>Calcinosis</t>
+  </si>
+  <si>
+    <t>spontaneous, fracture</t>
+  </si>
+  <si>
+    <t>Pathological fracture</t>
+  </si>
+  <si>
+    <t>cerebral, oedema</t>
+  </si>
+  <si>
+    <t>Cerebral edema</t>
+  </si>
+  <si>
+    <t>premature, epiphyseal, closure</t>
+  </si>
+  <si>
+    <t>pathological, condition</t>
+  </si>
+  <si>
+    <t>Pathological process</t>
+  </si>
+  <si>
+    <t>softening</t>
+  </si>
+  <si>
+    <t>Malacia</t>
+  </si>
+  <si>
+    <t>sensitive, sensitivity</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>concentrations</t>
+  </si>
+  <si>
+    <t>Mental concentration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -395,7 +457,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -656,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,6 +780,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1046,53 +1118,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A50DFC2-31D5-D444-8D8C-04753D55DEE3}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1137,16 +1210,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1166,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1195,16 +1268,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1224,16 +1297,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1253,16 +1326,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1282,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1311,16 +1384,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1340,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1369,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1398,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1427,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1456,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1485,16 +1558,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1514,16 +1587,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1543,16 +1616,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1572,16 +1645,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1601,16 +1674,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1630,16 +1703,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1659,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1688,16 +1761,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1746,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1775,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>81</v>
@@ -1804,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1833,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1891,16 +1964,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1920,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>81</v>
@@ -1949,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>81</v>
@@ -1978,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2007,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2036,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>81</v>
@@ -2094,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>81</v>
@@ -2123,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>81</v>
@@ -2152,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>81</v>
@@ -2181,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2210,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>81</v>
@@ -2239,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>81</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2268,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>81</v>
@@ -2297,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>81</v>
@@ -2326,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>81</v>
@@ -2355,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>81</v>
@@ -2384,167 +2457,457 @@
         <v>0</v>
       </c>
       <c r="F47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="25" t="s">
+      <c r="C48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="25" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="25" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I50" s="25" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="25" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="25" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="25" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="25" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>1</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{9571C6F3-E40A-824B-B657-39EF3B45C174}">
